--- a/scrapers/scraped-data/ILCA6 2023_ilca 6.xlsx
+++ b/scrapers/scraped-data/ILCA6 2023_ilca 6.xlsx
@@ -497,7 +497,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -591,7 +591,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -638,7 +638,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -779,7 +779,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -873,7 +873,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -967,7 +967,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1014,7 +1014,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1155,7 +1155,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1202,7 +1202,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1249,7 +1249,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1343,7 +1343,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1390,7 +1390,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1437,7 +1437,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1484,7 +1484,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1531,7 +1531,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1578,7 +1578,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1625,7 +1625,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1672,7 +1672,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1719,7 +1719,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -1766,7 +1766,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -1813,7 +1813,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1860,7 +1860,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -1954,7 +1954,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2048,7 +2048,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2095,7 +2095,7 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2189,7 +2189,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2283,7 +2283,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2330,7 +2330,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2377,7 +2377,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2424,7 +2424,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -2518,7 +2518,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -2565,7 +2565,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -2616,7 +2616,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -2663,7 +2663,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -2804,7 +2804,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -2855,7 +2855,7 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -2902,7 +2902,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3043,7 +3043,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3235,7 +3235,7 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -3282,7 +3282,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -3333,7 +3333,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -3380,7 +3380,7 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -3427,7 +3427,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -3474,7 +3474,7 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -3568,7 +3568,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -3615,7 +3615,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -3709,7 +3709,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -3756,7 +3756,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -3807,7 +3807,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -3854,7 +3854,7 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -3901,7 +3901,7 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -3995,7 +3995,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -4089,7 +4089,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -4136,7 +4136,7 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -4183,7 +4183,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -4234,7 +4234,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -4281,7 +4281,7 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -4332,7 +4332,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -4379,7 +4379,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -4426,7 +4426,7 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>68</v>
+        <v>268</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
